--- a/final_oficial/Biomas.xlsx
+++ b/final_oficial/Biomas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\45631777843\Desktop\powerbi\final_teste\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\45631777843\Desktop\powerbi\final_oficial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01940CD6-95FE-4FC6-A8D0-CDA1BD1F0A80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D7127C-361A-4323-9969-2D3436DC3D33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" xr2:uid="{384381E8-D50A-405B-8DDE-D7B7398FE159}"/>
   </bookViews>
@@ -400,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E45743-7B8B-4D1A-BCAE-3EB263A5ACEA}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,11 +467,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
